--- a/notebooks/assets/test/RF2G0_01.xlsx
+++ b/notebooks/assets/test/RF2G0_01.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.239</v>
+        <v>0.723</v>
       </c>
       <c r="C2" t="n">
-        <v>0.392</v>
+        <v>0.592</v>
       </c>
       <c r="D2" t="n">
-        <v>0.258</v>
+        <v>0.601</v>
       </c>
       <c r="E2" t="n">
-        <v>0.719</v>
+        <v>1.43</v>
       </c>
       <c r="F2" t="n">
-        <v>0.621</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.13</v>
+        <v>1.138</v>
       </c>
       <c r="C3" t="n">
-        <v>0.384</v>
+        <v>0.672</v>
       </c>
       <c r="D3" t="n">
-        <v>0.205</v>
+        <v>0.698</v>
       </c>
       <c r="E3" t="n">
-        <v>1.906</v>
+        <v>7.504</v>
       </c>
       <c r="F3" t="n">
-        <v>0.792</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.247</v>
+        <v>18.214</v>
       </c>
       <c r="C4" t="n">
-        <v>15.306</v>
+        <v>15.308</v>
       </c>
       <c r="D4" t="n">
-        <v>12.947</v>
+        <v>12.948</v>
       </c>
       <c r="E4" t="n">
-        <v>30.637</v>
+        <v>30.588</v>
       </c>
       <c r="F4" t="n">
-        <v>18.068</v>
+        <v>18.064</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.27</v>
+        <v>18.282</v>
       </c>
       <c r="C5" t="n">
-        <v>15.303</v>
+        <v>15.294</v>
       </c>
       <c r="D5" t="n">
-        <v>12.877</v>
+        <v>12.857</v>
       </c>
       <c r="E5" t="n">
-        <v>30.576</v>
+        <v>30.256</v>
       </c>
       <c r="F5" t="n">
-        <v>17.701</v>
+        <v>17.659</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.987</v>
+        <v>0.903</v>
       </c>
       <c r="C6" t="n">
-        <v>0.976</v>
+        <v>0.96</v>
       </c>
       <c r="D6" t="n">
-        <v>0.952</v>
+        <v>0.871</v>
       </c>
       <c r="E6" t="n">
-        <v>0.953</v>
+        <v>0.827</v>
       </c>
       <c r="F6" t="n">
-        <v>0.961</v>
+        <v>0.924</v>
       </c>
     </row>
   </sheetData>
